--- a/myCBD/myInfo/raceLink.xlsx
+++ b/myCBD/myInfo/raceLink.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CCB\CCB Project\0.CCB\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7806D8E1-3BBD-4E01-9A5F-ACBDB9F194DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="8265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>American Indian</t>
   </si>
@@ -49,30 +63,6 @@
     <t>raceCode</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>raceName</t>
   </si>
   <si>
@@ -94,9 +84,6 @@
     <t>Latino</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>2       Black, Non-Hispanic</t>
   </si>
   <si>
@@ -179,12 +166,75 @@
   </si>
   <si>
     <t>-missing</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>ASIAN_NH</t>
+  </si>
+  <si>
+    <t>BLACK_NH</t>
+  </si>
+  <si>
+    <t>AIAN_NH</t>
+  </si>
+  <si>
+    <t>WHITE_NH</t>
+  </si>
+  <si>
+    <t>HISPANIC</t>
+  </si>
+  <si>
+    <t>NHPI_NH</t>
+  </si>
+  <si>
+    <t>MR_NH</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>AIAN</t>
+  </si>
+  <si>
+    <t>NHPI</t>
+  </si>
+  <si>
+    <t>Multi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,18 +559,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,38 +585,44 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -581,21 +637,27 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -607,24 +669,30 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -645,15 +713,21 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -662,27 +736,33 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -691,24 +771,30 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -720,24 +806,30 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -746,24 +838,30 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -781,12 +879,12 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -804,17 +902,28 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -825,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -836,12 +945,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
